--- a/仕様/ステージ設計.xlsx
+++ b/仕様/ステージ設計.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="廃工場" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,23 +18,59 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>■ステージ01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,11 +85,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -68,8 +110,161 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>51955</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>179842</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>21648</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>119784</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="楕円 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18062864" y="5513842"/>
+          <a:ext cx="662420" cy="667306"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>30308</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>217365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>157308</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="楕円 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18041217" y="6763638"/>
+          <a:ext cx="662420" cy="667306"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +309,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +344,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -333,10 +528,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/仕様/ステージ設計.xlsx
+++ b/仕様/ステージ設計.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="廃工場" sheetId="1" r:id="rId1"/>
+    <sheet name="01" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -87,10 +87,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -112,38 +112,216 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>214313</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>130048</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="381000"/>
+          <a:ext cx="15644813" cy="14750923"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>51955</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>179842</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>21648</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>119784</xdr:rowOff>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="楕円 3"/>
+        <xdr:cNvPr id="5" name="楕円 4"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18062864" y="5513842"/>
-          <a:ext cx="662420" cy="667306"/>
+          <a:off x="12382500" y="9572624"/>
+          <a:ext cx="3190875" cy="5357813"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1"/>
+            <a:t>山</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1"/>
+            <a:t>or</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1"/>
+            <a:t>崖</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>71436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="楕円 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9501187" y="12930186"/>
+          <a:ext cx="4891089" cy="1857375"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1"/>
+            <a:t>山</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1"/>
+            <a:t>or</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1"/>
+            <a:t>崖</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190498</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>142873</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4476748" y="3809999"/>
+          <a:ext cx="2524125" cy="4071937"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FF0000"/>
+          <a:srgbClr val="FF0000">
+            <a:alpha val="44000"/>
+          </a:srgbClr>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="57150">
           <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -169,18 +347,9 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4000" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>E</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1"/>
+            <a:t>広場</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -188,36 +357,38 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>30308</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>217365</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>95248</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>157308</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="楕円 10"/>
+        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18041217" y="6763638"/>
-          <a:ext cx="662420" cy="667306"/>
+          <a:off x="7238998" y="4667250"/>
+          <a:ext cx="4429127" cy="4976811"/>
         </a:xfrm>
-        <a:prstGeom prst="ellipse">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
+          <a:srgbClr val="FF0000">
+            <a:alpha val="44000"/>
+          </a:srgbClr>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="57150">
           <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -243,18 +414,76 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4000" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>S</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1"/>
+            <a:t>発電所エリア</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9239249" y="10263188"/>
+          <a:ext cx="2952750" cy="2500312"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000">
+            <a:alpha val="44000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1"/>
+            <a:t>駐車場</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -528,14 +757,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="BL40" sqref="BL40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
